--- a/工作项结构与计划排布表.xlsx
+++ b/工作项结构与计划排布表.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$92</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="215">
   <si>
     <t>EPIC</t>
   </si>
@@ -603,9 +603,6 @@
   </si>
   <si>
     <t>W8.Tue</t>
-  </si>
-  <si>
-    <t>平台消息与内容联通</t>
   </si>
   <si>
     <t>平台通知功能实现</t>
@@ -690,7 +687,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,13 +697,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1213,152 +1203,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1378,24 +1368,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1745,8 +1726,8 @@
   <sheetPr/>
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2150,13 +2131,13 @@
       <c r="C24" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2164,13 +2145,13 @@
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2180,13 +2161,13 @@
       <c r="C26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2194,13 +2175,13 @@
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="4" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2210,13 +2191,13 @@
       <c r="C28" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2224,13 +2205,13 @@
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2242,13 +2223,13 @@
       <c r="C30" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="4" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2256,13 +2237,13 @@
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2272,13 +2253,13 @@
       <c r="C32" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="4" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2286,13 +2267,13 @@
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2302,13 +2283,13 @@
       <c r="C34" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="4" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2316,13 +2297,13 @@
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2332,13 +2313,13 @@
       <c r="C36" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2346,13 +2327,13 @@
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="4" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2362,13 +2343,13 @@
       <c r="C38" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="4" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2376,13 +2357,13 @@
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2394,13 +2375,13 @@
       <c r="C40" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2408,13 +2389,13 @@
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="4" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2424,13 +2405,13 @@
       <c r="C42" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2438,13 +2419,13 @@
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2454,13 +2435,13 @@
       <c r="C44" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2468,13 +2449,13 @@
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="4" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2486,13 +2467,13 @@
       <c r="C46" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2500,13 +2481,13 @@
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="4" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2516,13 +2497,13 @@
       <c r="C48" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="4" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2530,13 +2511,13 @@
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2546,13 +2527,13 @@
       <c r="C50" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="7" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2560,372 +2541,372 @@
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="5"/>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="5"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="8" t="s">
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="5"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="10" t="s">
+      <c r="B54" s="5"/>
+      <c r="C54" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="5"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="8" t="s">
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="5"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="10" t="s">
+      <c r="B56" s="5"/>
+      <c r="C56" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="5"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="8" t="s">
+      <c r="B57" s="5"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="5"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="10" t="s">
+      <c r="B58" s="5"/>
+      <c r="C58" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="6"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="8" t="s">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="7" t="s">
+      <c r="A61" s="9"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="7" t="s">
+      <c r="A62" s="9"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13" t="s">
+      <c r="A63" s="9"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="7" t="s">
+      <c r="A64" s="9"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13" t="s">
+      <c r="A65" s="9"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="7" t="s">
+      <c r="A66" s="9"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13" t="s">
+      <c r="A67" s="9"/>
+      <c r="B67" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="7" t="s">
+      <c r="A68" s="9"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13" t="s">
+      <c r="A69" s="9"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="7" t="s">
+      <c r="A70" s="9"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13" t="s">
+      <c r="A71" s="9"/>
+      <c r="B71" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="4" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="7" t="s">
+      <c r="A72" s="9"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13" t="s">
+      <c r="A73" s="9"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="7" t="s">
+      <c r="A74" s="9"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="13"/>
+      <c r="A75" s="9"/>
       <c r="B75" s="4" t="s">
         <v>172</v>
       </c>
@@ -2943,7 +2924,7 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="13"/>
+      <c r="A76" s="9"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
@@ -2957,7 +2938,7 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="13"/>
+      <c r="A77" s="9"/>
       <c r="B77" s="4" t="s">
         <v>178</v>
       </c>
@@ -2975,7 +2956,7 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="13"/>
+      <c r="A78" s="9"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
@@ -2989,7 +2970,7 @@
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="13"/>
+      <c r="A79" s="9"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4" t="s">
         <v>183</v>
@@ -3005,7 +2986,7 @@
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="13"/>
+      <c r="A80" s="9"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
@@ -3019,7 +3000,7 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="13"/>
+      <c r="A81" s="9"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4" t="s">
         <v>186</v>
@@ -3035,7 +3016,7 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="13"/>
+      <c r="A82" s="9"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
@@ -3049,17 +3030,15 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="9"/>
+      <c r="B83" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="D83" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>13</v>
@@ -3069,11 +3048,11 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="4"/>
+      <c r="A84" s="9"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>10</v>
@@ -3083,43 +3062,43 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="4"/>
+      <c r="A85" s="9"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="4"/>
+      <c r="A86" s="9"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="4"/>
+      <c r="A87" s="9"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>53</v>
@@ -3129,11 +3108,11 @@
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="4"/>
+      <c r="A88" s="10"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>51</v>
@@ -3144,19 +3123,19 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="C89" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="D89" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="E89" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>188</v>
@@ -3167,10 +3146,10 @@
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>190</v>
@@ -3179,19 +3158,19 @@
     <row r="91" spans="1:6">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="D91" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3199,24 +3178,23 @@
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="E1:E64" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="E1:E92" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <mergeCells count="66">
+  <mergeCells count="65">
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="A24:A59"/>
-    <mergeCell ref="A60:A82"/>
-    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="A60:A88"/>
     <mergeCell ref="A89:A92"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B13"/>
